--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B6A8B0-1D76-43AF-AA97-52E9CFAD6286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3871D02-AED8-43A8-87F0-A2B69D01B70A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F1368E72-C5DE-4D43-BEBE-80BBCC1A15DE}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{F1368E72-C5DE-4D43-BEBE-80BBCC1A15DE}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3FC62B76-FACA-48FF-8CB5-A9777773180B}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{3FC62B76-FACA-48FF-8CB5-A9777773180B}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{99400940-C875-4D6F-A1E5-92A9F5104629}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{5AF4C2BA-75DD-4833-98DB-FBB55C8DCDF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+stiffer
+stiffest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{99400940-C875-4D6F-A1E5-92A9F5104629}">
       <text>
         <r>
           <rPr>
@@ -133,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{9CAFFF87-5C7F-4884-AA6F-8B0771BE376F}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{9CAFFF87-5C7F-4884-AA6F-8B0771BE376F}">
       <text>
         <r>
           <rPr>
@@ -165,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Verbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,150 +321,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tricky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>isolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>election</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cognitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">than </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>business</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tricky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>take</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>persistence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as well as</t>
-  </si>
-  <si>
-    <t>isolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>separate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>underlie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reliability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chocolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>possession</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opinion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>competition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>election</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>corner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cognitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quiet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in addition to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">than </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poetry</t>
+    <t>reflect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inherent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predominantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particularly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essentially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,18 +982,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
@@ -852,10 +1035,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -871,16 +1054,18 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -893,12 +1078,14 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -906,17 +1093,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -924,17 +1113,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -942,17 +1133,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -965,11 +1158,15 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -985,14 +1182,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1001,14 +1200,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1017,14 +1218,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -1033,14 +1236,16 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1049,14 +1254,16 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -1065,14 +1272,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1081,14 +1290,16 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1097,14 +1308,16 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -1113,12 +1326,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1126,12 +1344,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1145,6 +1368,9 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1158,6 +1384,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1171,8 +1400,11 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1184,8 +1416,11 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1198,7 +1433,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1211,7 +1446,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1224,7 +1459,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1237,7 +1472,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1250,7 +1485,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1263,7 +1498,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1276,7 +1511,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1289,7 +1524,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1302,32 +1537,117 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3871D02-AED8-43A8-87F0-A2B69D01B70A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92171E59-DB73-45E6-87FC-B9F33A4A9515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +187,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{80F0060A-7D55-4FC9-94B6-CC519A5C93F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+bent
+bent</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>Verbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +648,138 @@
   </si>
   <si>
     <t>treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semicolon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corruption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childhood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pudding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnificent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coincide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consistency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voluntary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1337,9 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1362,7 +1523,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1378,7 +1541,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1394,7 +1559,9 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1410,7 +1577,9 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1426,12 +1595,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1439,12 +1613,17 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1452,12 +1631,17 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1465,12 +1649,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1484,6 +1673,9 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1650,6 +1842,106 @@
         <v>107</v>
       </c>
     </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
